--- a/medicine/Maladies infectieuses/Émeute_de_la_peste_à_Moscou/Émeute_de_la_peste_à_Moscou.xlsx
+++ b/medicine/Maladies infectieuses/Émeute_de_la_peste_à_Moscou/Émeute_de_la_peste_à_Moscou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89meute_de_la_peste_%C3%A0_Moscou</t>
+          <t>Émeute_de_la_peste_à_Moscou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'émeute de la peste (en russe : Чумной бунт) est une émeute à Moscou en 1771 entre le 15 et le 17 septembre, causée par une épidémie de peste bubonique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89meute_de_la_peste_%C3%A0_Moscou</t>
+          <t>Émeute_de_la_peste_à_Moscou</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Déroulement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les premiers signes de peste sont apparus fin 1770 à Moscou et l'épidémie est majeure au printemps suivant. Les mesures prises par les autorités, telles que la création de quarantaines forcées, la destruction des biens contaminés sans compensation ni contrôle, et la fermeture des bains publics provoquent la peur et la colère des habitants. L'économie de la ville est au plus bas, car de nombreux marchés, magasins et bâtiments administratifs ont été fermés. Il en résulte de graves pénuries alimentaires et une détérioration des conditions de vie de la majorité des Moscovites. La noblesse et les citadins aisés quittent Moscou pour échapper à l'épidémie de peste.
 Les premières manifestations populaires contre les mesures prises ont eu lieu les 29 août et 1er septembre dans un quartier de Lefortovo. Début septembre, les rumeurs d'un soulèvement imminent circulent déjà. Une tentative de l'archevêque Ambroise de Moscou d'empêcher les citoyens de se rassembler devant l'icône de la Vierge Marie de Bogolioubovo à Kitaï-gorod, comme mesure de quarantaine, déclenche l'émeute de la peste. Le 15 septembre, des foules de Moscovites commencent à affluer vers la place Rouge au son des cloches d'alarme. Repoussant une unité militaire, ils font irruption dans le Kremlin et mettent à sac le monastère de Tchoudov (résidence de l'archevêque) et ses caves à vin. L'archevêque Ambroise parvient à se réfugier au monastère Donskoï.
